--- a/n8n Suche Keywords.xlsx
+++ b/n8n Suche Keywords.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Model Context Protocol</t>
   </si>
@@ -34,13 +34,24 @@
   <si>
     <t>Nemo AI</t>
   </si>
+  <si>
+    <t>Schlüsselwörter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -350,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,21 +374,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>